--- a/biology/Médecine/UFR_de_médecine_Paris_Nord/UFR_de_médecine_Paris_Nord.xlsx
+++ b/biology/Médecine/UFR_de_médecine_Paris_Nord/UFR_de_médecine_Paris_Nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine de Paris Nord était une UFR universitaire, composante de l'université Paris-Diderot (Paris-VII) puis de l'Université Paris-Cité. Elle fusionne avec la faculté de médecine Paris Centre (d) (ancienne composante de l'université Paris-Descartes, Paris-V), pour former l'unité de formation et de recherche de médecine de l'université Paris-Cité le 1er mars 2021.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est créée par le professeur Jean Bernard, opposé à une scission de la médecine et de la biologie. Elle revendique avec la faculté de médecine Paris Centre de l'université Paris-Cité et celle de Sorbonne Université, l'héritage de la Faculté de médecine de Paris.
-La faculté Paris Nord dispose de plusieurs sites pour ses formations médicales. L'hôpital Saint-Louis[1] et l'hôpital Bichat-Claude-Bernard[2] sont utilisés par les formations médicales. 
-Elle dispose de ressources propres comme une bibliothèque de 576 places à Bichat[3].
+La faculté Paris Nord dispose de plusieurs sites pour ses formations médicales. L'hôpital Saint-Louis et l'hôpital Bichat-Claude-Bernard sont utilisés par les formations médicales. 
+Elle dispose de ressources propres comme une bibliothèque de 576 places à Bichat.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -578,7 +596,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -596,7 +614,9 @@
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Directeur de l'UFR : Philippe Ruszniewski (d)
 Chef des services administratifs : Mathias Guerin
@@ -611,7 +631,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UFR_de_m%C3%A9decine_Paris_Nord</t>
+          <t>UFR_de_médecine_Paris_Nord</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,6 +650,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
